--- a/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\Schule\3_Semester\PRO2\SemProjekt\Projekt_HomeAutomation\p11\Documentation\ProjectDocumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66553A2C-B52A-4FE1-8BF7-0AAD71DBE622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="19320" windowHeight="14520"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Titel</t>
   </si>
@@ -78,9 +84,6 @@
     <t>Freigabe</t>
   </si>
   <si>
-    <t>Martina Musterfrau, Max Mustermann</t>
-  </si>
-  <si>
     <t>FH-Studenten</t>
   </si>
   <si>
@@ -96,18 +99,9 @@
     <t>Vollständiger Titel und Name des Projektbetreuers</t>
   </si>
   <si>
-    <t>Musterfirma</t>
-  </si>
-  <si>
     <t>Hier soll eine Kurzbeschreibung des Projekts eingefügt werden. Dieser Kurztext wird neben dem Logo des Projekts (1. Bild) auf der Projektübersichtsseite zu lesen sein. Die Länge sollte ca. 2-3 Sätze betragen.</t>
   </si>
   <si>
-    <t>Mustertitel</t>
-  </si>
-  <si>
-    <t>DI Dr. Max Mustermann, BSc, MSc</t>
-  </si>
-  <si>
     <t>Liste der Namen der Studierenden, die an diesem Projekt mitarbeiten, mit Komma getrennt.</t>
   </si>
   <si>
@@ -132,24 +126,33 @@
     <t>Bei Unklarheiten können die aktuellen Projektbeschreibungen auf der Website als Referenz herangezogen werden. Bei konkreten Fragen ist Kontakt mit Stephan Drab aufzunehmen.</t>
   </si>
   <si>
-    <t>Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.
+    <t>abgeschlossen</t>
+  </si>
+  <si>
+    <t>Home Automation</t>
+  </si>
+  <si>
+    <t>Wintersemester 2021/2022</t>
+  </si>
+  <si>
+    <t>Milosavljevic Marko, Shehata Abd El Rahaman, Züger Lukas</t>
+  </si>
+  <si>
+    <t>DI Dr. Christoph Schaffer</t>
+  </si>
+  <si>
+    <t>Unser Projekt bietet die Möglichkeit, über die HomeAssistant OS den eigenen Fernseher einzuschalten. Sobald mindestens eine Person im Raum erkannt wurde. Sollte über einen bestimmten Zeitraum keine Person mehr im Raum erkannt werden, schaltet sich der Fernseher wieder automatisch aus.</t>
+  </si>
+  <si>
+    <t>Mit Hilfe unserer Home Automation Applikation soll auf ein auf dem Benutzer abgestimmte Aktion ausgeführt werden. In unserem Fall, sobald der Benutzer seinen Raum betritt, wird er von seiner Webcam, die auf einem eigenen Raspberry Pi angehängt ist, erfasst und mit der OpenCV Bibliothek und unserem Skript erkannt. Daraufhin schickt unsere Applikation eine Anfrage an unseren Raspberry Pi Server mithilfe von Webhooks. Auf unserem Server läuft das Home Assistant Betriebssystem, das diese Anfrage erhält. Unser Server bearbeitet diese Anfrage und führt die darauffolgende Aktion durch. Der Server schickt anschließend den auszuführenden Befehl (z.B. Fernseher einschalten) weiter an seinen Logitech Harmony Hub. Dieser fungiert als Ersatz für die Fernbedienung und steuert den Fernseher mit Infrarot.
 Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.</t>
-  </si>
-  <si>
-    <t>Dies ist eine Musterkurzbeschreibung. Dies ist eine Musterkurzbeschreibung.</t>
-  </si>
-  <si>
-    <t>Sommersemester 2009</t>
-  </si>
-  <si>
-    <t>abgeschlossen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -269,9 +272,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -296,17 +296,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -348,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +392,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +444,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,38 +637,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="39.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -682,21 +730,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>39</v>
@@ -705,208 +753,205 @@
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="7" t="s">
         <v>38</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="T2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1"/>
-    <row r="4" spans="1:20" s="6" customFormat="1"/>
-    <row r="5" spans="1:20" s="6" customFormat="1"/>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:20" ht="52.5" customHeight="1">
+    <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:20" ht="27.75" customHeight="1">
+    <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" ht="39" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
     </row>
   </sheetData>
   <sheetProtection password="E579" sheet="1" selectLockedCells="1"/>
@@ -929,12 +974,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -943,12 +988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\Schule\3_Semester\PRO2\SemProjekt\Projekt_HomeAutomation\p11\Documentation\ProjectDocumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hagenberg_FH\3. Semester\Semester Projekt\Home Automation\p11\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66553A2C-B52A-4FE1-8BF7-0AAD71DBE622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AB55B6-1F5D-4C9B-9886-A98CE8714166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="330" windowWidth="27240" windowHeight="13150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Liste der Namen der Studierenden, die an diesem Projekt mitarbeiten, mit Komma getrennt.</t>
   </si>
   <si>
-    <t>Bild1.jpg,Bild2.png,Bild3.gif</t>
-  </si>
-  <si>
     <t>Ausfüllhinweise: Für 1 Projekt muss jeweils 1 Zeile ausgefüllt werden. Zu verwenden ist die obige Zeile mit den Musterdaten. Die ausgeblendeten Spalten sollen nicht eingeblendet werden.</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   <si>
     <t>Mit Hilfe unserer Home Automation Applikation soll auf ein auf dem Benutzer abgestimmte Aktion ausgeführt werden. In unserem Fall, sobald der Benutzer seinen Raum betritt, wird er von seiner Webcam, die auf einem eigenen Raspberry Pi angehängt ist, erfasst und mit der OpenCV Bibliothek und unserem Skript erkannt. Daraufhin schickt unsere Applikation eine Anfrage an unseren Raspberry Pi Server mithilfe von Webhooks. Auf unserem Server läuft das Home Assistant Betriebssystem, das diese Anfrage erhält. Unser Server bearbeitet diese Anfrage und führt die darauffolgende Aktion durch. Der Server schickt anschließend den auszuführenden Befehl (z.B. Fernseher einschalten) weiter an seinen Logitech Harmony Hub. Dieser fungiert als Ersatz für die Fernbedienung und steuert den Fernseher mit Infrarot.
 Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.</t>
+  </si>
+  <si>
+    <t>HomeAutomation_1_Logo.png</t>
   </si>
 </sst>
 </file>
@@ -272,33 +272,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,34 +641,34 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="39.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="39.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.453125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="39.36328125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.36328125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.6328125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.54296875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.36328125" customWidth="1"/>
+    <col min="20" max="20" width="9.08984375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,34 +732,34 @@
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>40</v>
+      <c r="O2" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="T2" s="6">
         <v>1</v>
@@ -769,189 +769,189 @@
     <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="A6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="B8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="A14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
     </row>
   </sheetData>
   <sheetProtection password="E579" sheet="1" selectLockedCells="1"/>
@@ -979,7 +979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -993,7 +993,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
